--- a/biology/Médecine/François_Legent/François_Legent.xlsx
+++ b/biology/Médecine/François_Legent/François_Legent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Legent</t>
+          <t>François_Legent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Legent est un médecin oto-rhino-laryngologiste français né le 23 janvier 1932 à Vimoutiers et mort le 26 juillet 2021 à Nantes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Legent</t>
+          <t>François_Legent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">François Gabriel Legent suit ses études à la Faculté de médecine de Paris, devient externe des Hôpitaux en 1954 puis interne au concours de 1957. Il est chef de clinique-assistant dans le service du Pr Maurice Aubry de 1964 à 1967.
 Maître de conférence en oto-rhino-laryngologie à la Faculté de médecine de Nantes de 1967 à 1970, maître de conférence agrégé de 1970 à 1975, il devient professeur de clinique ORL et chirurgie cervico-faciale et chef de service de 1975 à 1997, puis consultant en 1997 et professeur émérite à en 2000.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Legent</t>
+          <t>François_Legent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publications
-L'otoscopie en pratique clinique (2015)
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'otoscopie en pratique clinique (2015)
 Atlas pratique oreille et bouche (2001)
 Prosper Menière (1999)
 Chirurgie de l'oreille moyenne (1993)
